--- a/data/microgrid/costs.xlsx
+++ b/data/microgrid/costs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>hydro</t>
+  </si>
+  <si>
+    <t>diesel</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,7 +483,7 @@
         <v>0.08</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="0" xml:space="preserve"> (I3 + C3) /100*B3</f>
+        <f t="shared" ref="G3:G6" si="0" xml:space="preserve"> (I3 + C3) /100*B3</f>
         <v>227357.55810393623</v>
       </c>
       <c r="H3">
@@ -488,7 +491,7 @@
         <v>0.01</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I5" si="2">F3 / (1 - 1/(1 + F3) ^E3) *100</f>
+        <f t="shared" ref="I3:I6" si="2">F3 / (1 - 1/(1 + F3) ^E3) *100</f>
         <v>9.3678779051968117</v>
       </c>
     </row>
@@ -554,6 +557,37 @@
       <c r="I5">
         <f t="shared" si="2"/>
         <v>8.0169867669210504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>600000</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>0.08</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>79111.325293890361</v>
+      </c>
+      <c r="H6">
+        <v>96.2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>10.185220882315059</v>
       </c>
     </row>
   </sheetData>
